--- a/homework1.xlsx
+++ b/homework1.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE45DC6-4254-41FA-A05A-9D4841FF90C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2D21A6-EC96-4665-A0FF-BF3748BA23CA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0335BDC5-957C-4695-9EC9-979230F27FA0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arinchai" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Bubble</t>
   </si>
@@ -40,14 +40,25 @@
   <si>
     <t>Insertion</t>
   </si>
+  <si>
+    <t>นายอริญชัย สีลาภิวัฒน์ 1810711102005</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -75,8 +86,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -177,7 +191,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Arinchai!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -212,7 +226,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Arinchai!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -245,7 +259,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:f>Arinchai!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -288,7 +302,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Arinchai!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -323,7 +337,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Arinchai!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -356,7 +370,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$9</c:f>
+              <c:f>Arinchai!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -399,7 +413,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Arinchai!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -434,7 +448,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Arinchai!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -467,7 +481,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$9</c:f>
+              <c:f>Arinchai!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1708,15 +1722,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50BFFEE-8FAF-49E3-AA56-B4070A023B20}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1727,7 +1741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -1740,8 +1754,18 @@
       <c r="D2">
         <v>10.8</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20000</v>
       </c>
@@ -1754,8 +1778,16 @@
       <c r="D3">
         <v>39</v>
       </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>30000</v>
       </c>
@@ -1768,8 +1800,16 @@
       <c r="D4">
         <v>67.3</v>
       </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>40000</v>
       </c>
@@ -1783,7 +1823,7 @@
         <v>138.30000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50000</v>
       </c>
@@ -1797,7 +1837,7 @@
         <v>193.3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>60000</v>
       </c>
@@ -1811,7 +1851,7 @@
         <v>284.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>70000</v>
       </c>
@@ -1825,7 +1865,7 @@
         <v>386.4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>80000</v>
       </c>
@@ -1840,7 +1880,11 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:N4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>